--- a/Documentos guia/Flujo de Caja.xlsx
+++ b/Documentos guia/Flujo de Caja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Documentos guia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD7ECE-9D7F-4EE6-8AA8-D82396353815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6C22E-7204-4FE9-A274-39BBD7FCF358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1422,6 +1424,90 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,70 +1517,64 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,140 +1610,62 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6184,13 +6186,13 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
-      <c r="I3" s="231" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="I3" s="151" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="29">
@@ -6243,13 +6245,13 @@
       </c>
     </row>
     <row r="4" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
-      <c r="I4" s="231"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="I4" s="151"/>
       <c r="J4" s="29">
         <v>2020</v>
       </c>
@@ -6300,10 +6302,10 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="222"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="19">
         <v>10</v>
       </c>
@@ -6363,10 +6365,10 @@
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="212"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="3">
         <v>2</v>
       </c>
@@ -6426,10 +6428,10 @@
       </c>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="3">
         <v>144</v>
       </c>
@@ -6489,10 +6491,10 @@
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="211" t="s">
+      <c r="C8" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="212"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="3">
         <v>288</v>
       </c>
@@ -6552,10 +6554,10 @@
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="211" t="s">
+      <c r="C9" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="3">
         <v>8900</v>
       </c>
@@ -6615,10 +6617,10 @@
       </c>
     </row>
     <row r="10" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="214"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="21">
         <v>683520</v>
       </c>
@@ -6678,12 +6680,12 @@
       </c>
     </row>
     <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="218" t="s">
+      <c r="C11" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
       <c r="I11" s="29" t="s">
         <v>49</v>
       </c>
@@ -6737,10 +6739,10 @@
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="222"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="7">
         <v>5</v>
       </c>
@@ -6800,10 +6802,10 @@
       </c>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="211" t="s">
+      <c r="C13" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="212"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="5">
         <v>0.875</v>
       </c>
@@ -6827,10 +6829,10 @@
       <c r="Y13" s="26"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="211" t="s">
+      <c r="C14" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="212"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="5">
         <v>0.82</v>
       </c>
@@ -6860,10 +6862,10 @@
       <c r="Y14" s="26"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="197" t="s">
+      <c r="C15" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="198"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="5">
         <v>220</v>
       </c>
@@ -6893,10 +6895,10 @@
       <c r="Y15" s="26"/>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="197" t="s">
+      <c r="C16" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="198"/>
+      <c r="D16" s="155"/>
       <c r="E16" s="5">
         <v>144</v>
       </c>
@@ -6926,10 +6928,10 @@
       <c r="Y16" s="26"/>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="211" t="s">
+      <c r="C17" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="212"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="2">
         <v>4.2857142857142856</v>
       </c>
@@ -6955,10 +6957,10 @@
       <c r="Y17" s="26"/>
     </row>
     <row r="18" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="212"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="2">
         <v>2.9914469730844986</v>
       </c>
@@ -6984,10 +6986,10 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="197" t="s">
+      <c r="C19" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="198"/>
+      <c r="D19" s="155"/>
       <c r="E19" s="5">
         <v>617.14285714285711</v>
       </c>
@@ -7013,10 +7015,10 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="197" t="s">
+      <c r="C20" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="198"/>
+      <c r="D20" s="155"/>
       <c r="E20" s="5">
         <v>500</v>
       </c>
@@ -7042,22 +7044,22 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="229" t="s">
+      <c r="C21" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="230"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="14">
         <v>308571.42857142858</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="215" t="s">
+      <c r="I21" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="217"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="160"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
@@ -7073,22 +7075,22 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="211" t="s">
+      <c r="C22" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="212"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="16">
         <v>30800000</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="218" t="s">
+      <c r="I22" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="219"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="220"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="163"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
@@ -7104,20 +7106,20 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C23" s="211" t="s">
+      <c r="C23" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="212"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="17">
         <v>869000</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="221" t="s">
+      <c r="I23" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="222"/>
+      <c r="J23" s="165"/>
       <c r="K23" s="19">
         <v>10</v>
       </c>
@@ -7151,20 +7153,20 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C24" s="211" t="s">
+      <c r="C24" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="212"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="211" t="s">
+      <c r="I24" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="212"/>
+      <c r="J24" s="153"/>
       <c r="K24" s="3">
         <v>2</v>
       </c>
@@ -7173,20 +7175,20 @@
       </c>
     </row>
     <row r="25" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="214"/>
+      <c r="D25" s="157"/>
       <c r="E25" s="21">
         <v>200000</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="211" t="s">
+      <c r="I25" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="212"/>
+      <c r="J25" s="153"/>
       <c r="K25" s="3">
         <v>14</v>
       </c>
@@ -7195,20 +7197,20 @@
       </c>
     </row>
     <row r="26" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="228"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="9">
         <v>5168904.7619047612</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="211" t="s">
+      <c r="I26" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="212"/>
+      <c r="J26" s="153"/>
       <c r="K26" s="3">
         <v>2153</v>
       </c>
@@ -7221,20 +7223,20 @@
       </c>
     </row>
     <row r="27" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="221" t="s">
+      <c r="C27" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="222"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="23">
         <v>4105.3090909090915</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="213" t="s">
+      <c r="I27" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="214"/>
+      <c r="J27" s="157"/>
       <c r="K27" s="21">
         <f>+K26*K25*K24</f>
         <v>60284</v>
@@ -7248,10 +7250,10 @@
       </c>
     </row>
     <row r="28" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="225" t="s">
+      <c r="C28" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="226"/>
+      <c r="D28" s="171"/>
       <c r="E28" s="18">
         <v>1800</v>
       </c>
@@ -7260,10 +7262,10 @@
       </c>
     </row>
     <row r="29" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="223" t="s">
+      <c r="C29" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="224"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="11">
         <v>7389556.3636363652</v>
       </c>
@@ -7272,10 +7274,10 @@
       </c>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="I30" s="211" t="s">
+      <c r="I30" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="212"/>
+      <c r="J30" s="153"/>
       <c r="K30" s="3">
         <v>288</v>
       </c>
@@ -7284,10 +7286,10 @@
       </c>
     </row>
     <row r="32" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="213" t="s">
+      <c r="I32" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="214"/>
+      <c r="J32" s="157"/>
       <c r="K32" s="21">
         <v>683520</v>
       </c>
@@ -7297,6 +7299,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -7311,32 +7336,9 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7359,7 +7361,7 @@
     <col min="14" max="14" width="11.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" style="26" customWidth="1"/>
     <col min="16" max="17" width="11.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="187" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="185" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="11.140625" style="128" bestFit="1" customWidth="1"/>
     <col min="25" max="51" width="11.42578125" style="128"/>
   </cols>
@@ -7385,27 +7387,27 @@
     </row>
     <row r="2" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="128"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="224" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
       <c r="G2" s="128"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="162"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="178"/>
       <c r="N2" s="128"/>
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
       <c r="Q2" s="128"/>
-      <c r="R2" s="188"/>
+      <c r="R2" s="186"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="128"/>
@@ -7428,10 +7430,10 @@
       <c r="H3" s="61">
         <v>1</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="161"/>
+      <c r="J3" s="229"/>
       <c r="K3" s="62">
         <v>1</v>
       </c>
@@ -7446,7 +7448,7 @@
       <c r="O3" s="128"/>
       <c r="P3" s="128"/>
       <c r="Q3" s="128"/>
-      <c r="R3" s="188"/>
+      <c r="R3" s="186"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="128"/>
@@ -7470,10 +7472,10 @@
       <c r="H4" s="61">
         <v>2</v>
       </c>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="161"/>
+      <c r="J4" s="229"/>
       <c r="K4" s="56">
         <v>1</v>
       </c>
@@ -7488,7 +7490,7 @@
       <c r="O4" s="128"/>
       <c r="P4" s="128"/>
       <c r="Q4" s="128"/>
-      <c r="R4" s="188"/>
+      <c r="R4" s="186"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="128"/>
@@ -7512,10 +7514,10 @@
       <c r="H5" s="61">
         <v>3</v>
       </c>
-      <c r="I5" s="161" t="s">
+      <c r="I5" s="229" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="161"/>
+      <c r="J5" s="229"/>
       <c r="K5" s="62">
         <v>2</v>
       </c>
@@ -7530,7 +7532,7 @@
       <c r="O5" s="128"/>
       <c r="P5" s="128"/>
       <c r="Q5" s="128"/>
-      <c r="R5" s="188"/>
+      <c r="R5" s="186"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="128"/>
@@ -7554,10 +7556,10 @@
       <c r="H6" s="61">
         <v>4</v>
       </c>
-      <c r="I6" s="161" t="s">
+      <c r="I6" s="229" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="161"/>
+      <c r="J6" s="229"/>
       <c r="K6" s="62">
         <v>1</v>
       </c>
@@ -7572,7 +7574,7 @@
       <c r="O6" s="128"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="128"/>
-      <c r="R6" s="188"/>
+      <c r="R6" s="186"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="128"/>
@@ -7596,10 +7598,10 @@
       <c r="H7" s="61">
         <v>5</v>
       </c>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="229" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="161"/>
+      <c r="J7" s="229"/>
       <c r="K7" s="56">
         <v>1</v>
       </c>
@@ -7614,7 +7616,7 @@
       <c r="O7" s="128"/>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
-      <c r="R7" s="188"/>
+      <c r="R7" s="186"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="128"/>
@@ -7638,10 +7640,10 @@
       <c r="H8" s="61">
         <v>6</v>
       </c>
-      <c r="I8" s="161" t="s">
+      <c r="I8" s="229" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="161"/>
+      <c r="J8" s="229"/>
       <c r="K8" s="56">
         <v>1000</v>
       </c>
@@ -7656,7 +7658,7 @@
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
       <c r="Q8" s="128"/>
-      <c r="R8" s="188"/>
+      <c r="R8" s="186"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="128"/>
@@ -7680,10 +7682,10 @@
       <c r="H9" s="61">
         <v>7</v>
       </c>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="161"/>
+      <c r="J9" s="229"/>
       <c r="K9" s="62">
         <v>8</v>
       </c>
@@ -7698,7 +7700,7 @@
       <c r="O9" s="128"/>
       <c r="P9" s="128"/>
       <c r="Q9" s="128"/>
-      <c r="R9" s="188"/>
+      <c r="R9" s="186"/>
     </row>
     <row r="10" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="128"/>
@@ -7722,10 +7724,10 @@
       <c r="H10" s="124">
         <v>8</v>
       </c>
-      <c r="I10" s="160" t="s">
+      <c r="I10" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="160"/>
+      <c r="J10" s="228"/>
       <c r="K10" s="125">
         <v>4</v>
       </c>
@@ -7740,7 +7742,7 @@
       <c r="O10" s="128"/>
       <c r="P10" s="128"/>
       <c r="Q10" s="128"/>
-      <c r="R10" s="188"/>
+      <c r="R10" s="186"/>
     </row>
     <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128"/>
@@ -7761,13 +7763,13 @@
         <v>3200000</v>
       </c>
       <c r="G11" s="128"/>
-      <c r="H11" s="159" t="s">
+      <c r="H11" s="227" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="228"/>
+      <c r="L11" s="228"/>
       <c r="M11" s="123">
         <f>+SUM(M3:M10)</f>
         <v>68100000</v>
@@ -7776,7 +7778,7 @@
       <c r="O11" s="128"/>
       <c r="P11" s="128"/>
       <c r="Q11" s="128"/>
-      <c r="R11" s="188"/>
+      <c r="R11" s="186"/>
     </row>
     <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="128"/>
@@ -7807,7 +7809,7 @@
       <c r="O12" s="128"/>
       <c r="P12" s="128"/>
       <c r="Q12" s="128"/>
-      <c r="R12" s="188"/>
+      <c r="R12" s="186"/>
     </row>
     <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="128"/>
@@ -7828,19 +7830,19 @@
         <v>292383</v>
       </c>
       <c r="G13" s="128"/>
-      <c r="H13" s="157" t="s">
+      <c r="H13" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="162"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="178"/>
       <c r="N13" s="128"/>
       <c r="O13" s="128"/>
       <c r="P13" s="128"/>
       <c r="Q13" s="128"/>
-      <c r="R13" s="188"/>
+      <c r="R13" s="186"/>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="128"/>
@@ -7883,7 +7885,7 @@
       <c r="O14" s="128"/>
       <c r="P14" s="128"/>
       <c r="Q14" s="128"/>
-      <c r="R14" s="188"/>
+      <c r="R14" s="186"/>
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
@@ -7927,7 +7929,7 @@
       <c r="O15" s="128"/>
       <c r="P15" s="128"/>
       <c r="Q15" s="128"/>
-      <c r="R15" s="188"/>
+      <c r="R15" s="186"/>
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="128"/>
@@ -7971,7 +7973,7 @@
       <c r="O16" s="128"/>
       <c r="P16" s="128"/>
       <c r="Q16" s="128"/>
-      <c r="R16" s="188"/>
+      <c r="R16" s="186"/>
     </row>
     <row r="17" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="128"/>
@@ -8015,7 +8017,7 @@
       <c r="O17" s="128"/>
       <c r="P17" s="128"/>
       <c r="Q17" s="128"/>
-      <c r="R17" s="188"/>
+      <c r="R17" s="186"/>
     </row>
     <row r="18" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="128"/>
@@ -8036,13 +8038,13 @@
         <v>1600000</v>
       </c>
       <c r="G18" s="128"/>
-      <c r="H18" s="157" t="s">
+      <c r="H18" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
       <c r="M18" s="108">
         <f>+SUM(M15:M17)</f>
         <v>13400000</v>
@@ -8051,7 +8053,7 @@
       <c r="O18" s="128"/>
       <c r="P18" s="128"/>
       <c r="Q18" s="128"/>
-      <c r="R18" s="188"/>
+      <c r="R18" s="186"/>
     </row>
     <row r="19" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="128"/>
@@ -8082,7 +8084,7 @@
       <c r="O19" s="128"/>
       <c r="P19" s="128"/>
       <c r="Q19" s="128"/>
-      <c r="R19" s="188"/>
+      <c r="R19" s="186"/>
     </row>
     <row r="20" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="128"/>
@@ -8103,19 +8105,19 @@
         <v>1000000</v>
       </c>
       <c r="G20" s="128"/>
-      <c r="H20" s="157" t="s">
+      <c r="H20" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="162"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="178"/>
       <c r="N20" s="128"/>
       <c r="O20" s="128"/>
       <c r="P20" s="128"/>
       <c r="Q20" s="128"/>
-      <c r="R20" s="188"/>
+      <c r="R20" s="186"/>
     </row>
     <row r="21" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="128"/>
@@ -8144,7 +8146,7 @@
       <c r="O21" s="128"/>
       <c r="P21" s="128"/>
       <c r="Q21" s="128"/>
-      <c r="R21" s="188"/>
+      <c r="R21" s="186"/>
     </row>
     <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="128"/>
@@ -8169,7 +8171,7 @@
       <c r="O22" s="128"/>
       <c r="P22" s="128"/>
       <c r="Q22" s="128"/>
-      <c r="R22" s="188"/>
+      <c r="R22" s="186"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="128"/>
@@ -8193,7 +8195,7 @@
       <c r="O23" s="128"/>
       <c r="P23" s="128"/>
       <c r="Q23" s="128"/>
-      <c r="R23" s="188"/>
+      <c r="R23" s="186"/>
     </row>
     <row r="24" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="128"/>
@@ -8218,15 +8220,15 @@
       <c r="O24" s="128"/>
       <c r="P24" s="128"/>
       <c r="Q24" s="128"/>
-      <c r="R24" s="188"/>
+      <c r="R24" s="186"/>
     </row>
     <row r="25" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="128"/>
-      <c r="B25" s="192" t="s">
+      <c r="B25" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="99">
         <f>(+F21+M23+M24+M25)/80</f>
         <v>1031670.5227499999</v>
@@ -8250,15 +8252,15 @@
       <c r="O25" s="128"/>
       <c r="P25" s="128"/>
       <c r="Q25" s="128"/>
-      <c r="R25" s="188"/>
+      <c r="R25" s="186"/>
     </row>
     <row r="26" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="128"/>
-      <c r="B26" s="192" t="s">
+      <c r="B26" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="99">
         <f>+M26/120</f>
         <v>1255280.3484999998</v>
@@ -8267,13 +8269,13 @@
         <v>116</v>
       </c>
       <c r="G26" s="128"/>
-      <c r="H26" s="157" t="s">
+      <c r="H26" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
       <c r="M26" s="69">
         <f>+SUM(M22:M25)</f>
         <v>150633641.81999999</v>
@@ -8282,7 +8284,7 @@
       <c r="O26" s="128"/>
       <c r="P26" s="128"/>
       <c r="Q26" s="128"/>
-      <c r="R26" s="188"/>
+      <c r="R26" s="186"/>
     </row>
     <row r="27" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="128"/>
@@ -8302,27 +8304,27 @@
       <c r="O27" s="128"/>
       <c r="P27" s="128"/>
       <c r="Q27" s="128"/>
-      <c r="R27" s="188"/>
+      <c r="R27" s="186"/>
     </row>
     <row r="28" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="189"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="191"/>
-      <c r="R28" s="188"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="186"/>
     </row>
     <row r="29" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="128"/>
@@ -8342,7 +8344,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
       <c r="Q29" s="128"/>
-      <c r="R29" s="188"/>
+      <c r="R29" s="186"/>
     </row>
     <row r="30" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="128"/>
@@ -8350,10 +8352,10 @@
       <c r="C30" s="128"/>
       <c r="D30" s="128"/>
       <c r="E30" s="128"/>
-      <c r="F30" s="157" t="s">
+      <c r="F30" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="158"/>
+      <c r="G30" s="177"/>
       <c r="H30" s="76">
         <f>+P34*14</f>
         <v>1680</v>
@@ -8367,7 +8369,7 @@
       <c r="O30" s="128"/>
       <c r="P30" s="128"/>
       <c r="Q30" s="128"/>
-      <c r="R30" s="188"/>
+      <c r="R30" s="186"/>
     </row>
     <row r="31" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="128"/>
@@ -8387,49 +8389,49 @@
       <c r="O31" s="144"/>
       <c r="P31" s="144"/>
       <c r="Q31" s="144"/>
-      <c r="R31" s="188"/>
+      <c r="R31" s="186"/>
     </row>
     <row r="32" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="128"/>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="162"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="178"/>
       <c r="F32" s="128"/>
       <c r="G32" s="128"/>
       <c r="H32" s="128"/>
-      <c r="I32" s="157" t="s">
+      <c r="I32" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="162"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="178"/>
       <c r="M32" s="143"/>
       <c r="N32" s="144"/>
       <c r="O32" s="144"/>
       <c r="P32" s="144"/>
       <c r="Q32" s="144"/>
-      <c r="R32" s="188"/>
+      <c r="R32" s="186"/>
     </row>
     <row r="33" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="128"/>
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="162"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="128"/>
       <c r="G33" s="128"/>
       <c r="H33" s="128"/>
-      <c r="I33" s="157" t="s">
+      <c r="I33" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="162"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="178"/>
       <c r="M33" s="143"/>
       <c r="N33" s="145" t="s">
         <v>110</v>
@@ -8441,7 +8443,7 @@
       <c r="Q33" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="R33" s="188"/>
+      <c r="R33" s="186"/>
     </row>
     <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="128"/>
@@ -8458,10 +8460,10 @@
       <c r="F34" s="128"/>
       <c r="G34" s="128"/>
       <c r="H34" s="128"/>
-      <c r="I34" s="195" t="s">
+      <c r="I34" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="196"/>
+      <c r="J34" s="183"/>
       <c r="K34" s="3">
         <f>+P33/P34</f>
         <v>1.0416666666666666E-2</v>
@@ -8480,7 +8482,7 @@
       <c r="Q34" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="R34" s="188"/>
+      <c r="R34" s="186"/>
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="128"/>
@@ -8497,10 +8499,10 @@
       <c r="F35" s="128"/>
       <c r="G35" s="128"/>
       <c r="H35" s="128"/>
-      <c r="I35" s="197" t="s">
+      <c r="I35" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="198"/>
+      <c r="J35" s="155"/>
       <c r="K35" s="16">
         <v>100000</v>
       </c>
@@ -8512,7 +8514,7 @@
       <c r="O35" s="144"/>
       <c r="P35" s="144"/>
       <c r="Q35" s="144"/>
-      <c r="R35" s="188"/>
+      <c r="R35" s="186"/>
     </row>
     <row r="36" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="128"/>
@@ -8529,10 +8531,10 @@
       <c r="F36" s="128"/>
       <c r="G36" s="128"/>
       <c r="H36" s="128"/>
-      <c r="I36" s="199" t="s">
+      <c r="I36" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="J36" s="200"/>
+      <c r="J36" s="175"/>
       <c r="K36" s="21">
         <f>+K35*K34</f>
         <v>1041.6666666666665</v>
@@ -8545,7 +8547,7 @@
       <c r="O36" s="144"/>
       <c r="P36" s="144"/>
       <c r="Q36" s="144"/>
-      <c r="R36" s="188"/>
+      <c r="R36" s="186"/>
     </row>
     <row r="37" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="128"/>
@@ -8574,7 +8576,7 @@
         <f>+D39+K36+K41+K48</f>
         <v>1301.9547619047619</v>
       </c>
-      <c r="R37" s="188"/>
+      <c r="R37" s="186"/>
     </row>
     <row r="38" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="128"/>
@@ -8592,18 +8594,18 @@
       <c r="F38" s="128"/>
       <c r="G38" s="128"/>
       <c r="H38" s="128"/>
-      <c r="I38" s="157" t="s">
+      <c r="I38" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="162"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="178"/>
       <c r="M38" s="143"/>
       <c r="N38" s="144"/>
       <c r="O38" s="144"/>
       <c r="P38" s="144"/>
       <c r="Q38" s="144"/>
-      <c r="R38" s="188"/>
+      <c r="R38" s="186"/>
     </row>
     <row r="39" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="128"/>
@@ -8621,28 +8623,28 @@
       <c r="F39" s="128"/>
       <c r="G39" s="128"/>
       <c r="H39" s="128"/>
-      <c r="I39" s="157" t="s">
+      <c r="I39" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="J39" s="158"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="162"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="178"/>
       <c r="M39" s="128"/>
       <c r="N39" s="147"/>
       <c r="O39" s="147"/>
       <c r="P39" s="147"/>
       <c r="Q39" s="144"/>
-      <c r="R39" s="188"/>
+      <c r="R39" s="186"/>
     </row>
     <row r="40" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="128"/>
       <c r="F40" s="128"/>
       <c r="G40" s="128"/>
       <c r="H40" s="128"/>
-      <c r="I40" s="195" t="s">
+      <c r="I40" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="J40" s="196"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="89">
         <v>27000</v>
       </c>
@@ -8654,23 +8656,23 @@
       <c r="O40" s="147"/>
       <c r="P40" s="148"/>
       <c r="Q40" s="128"/>
-      <c r="R40" s="188"/>
+      <c r="R40" s="186"/>
     </row>
     <row r="41" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="128"/>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="162"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="128"/>
       <c r="G41" s="128"/>
       <c r="H41" s="128"/>
-      <c r="I41" s="199" t="s">
+      <c r="I41" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="J41" s="200"/>
+      <c r="J41" s="175"/>
       <c r="K41" s="21">
         <f>+K40/H30</f>
         <v>16.071428571428573</v>
@@ -8683,7 +8685,7 @@
       <c r="O41" s="147"/>
       <c r="P41" s="148"/>
       <c r="Q41" s="128"/>
-      <c r="R41" s="188"/>
+      <c r="R41" s="186"/>
     </row>
     <row r="42" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="128"/>
@@ -8709,7 +8711,7 @@
       <c r="O42" s="148"/>
       <c r="P42" s="128"/>
       <c r="Q42" s="128"/>
-      <c r="R42" s="188"/>
+      <c r="R42" s="186"/>
     </row>
     <row r="43" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="128"/>
@@ -8724,18 +8726,18 @@
       <c r="F43" s="128"/>
       <c r="G43" s="128"/>
       <c r="H43" s="128"/>
-      <c r="I43" s="157" t="s">
+      <c r="I43" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="162"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="178"/>
       <c r="M43" s="128"/>
       <c r="N43" s="148"/>
       <c r="O43" s="148"/>
       <c r="P43" s="128"/>
       <c r="Q43" s="128"/>
-      <c r="R43" s="188"/>
+      <c r="R43" s="186"/>
     </row>
     <row r="44" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="128"/>
@@ -8750,18 +8752,18 @@
       <c r="F44" s="128"/>
       <c r="G44" s="128"/>
       <c r="H44" s="128"/>
-      <c r="I44" s="157" t="s">
+      <c r="I44" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="162"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="178"/>
       <c r="M44" s="128"/>
       <c r="N44" s="148"/>
       <c r="O44" s="148"/>
       <c r="P44" s="128"/>
       <c r="Q44" s="128"/>
-      <c r="R44" s="188"/>
+      <c r="R44" s="186"/>
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="128"/>
@@ -8778,10 +8780,10 @@
       <c r="F45" s="128"/>
       <c r="G45" s="128"/>
       <c r="H45" s="128"/>
-      <c r="I45" s="195" t="s">
+      <c r="I45" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="196"/>
+      <c r="J45" s="183"/>
       <c r="K45" s="19">
         <v>7</v>
       </c>
@@ -8793,7 +8795,7 @@
       <c r="O45" s="148"/>
       <c r="P45" s="128"/>
       <c r="Q45" s="128"/>
-      <c r="R45" s="188"/>
+      <c r="R45" s="186"/>
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="128"/>
@@ -8810,10 +8812,10 @@
       <c r="F46" s="128"/>
       <c r="G46" s="128"/>
       <c r="H46" s="128"/>
-      <c r="I46" s="197" t="s">
+      <c r="I46" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="J46" s="198"/>
+      <c r="J46" s="155"/>
       <c r="K46" s="16">
         <v>50000</v>
       </c>
@@ -8825,7 +8827,7 @@
       <c r="O46" s="128"/>
       <c r="P46" s="128"/>
       <c r="Q46" s="128"/>
-      <c r="R46" s="188"/>
+      <c r="R46" s="186"/>
     </row>
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="128"/>
@@ -8843,10 +8845,10 @@
       <c r="F47" s="128"/>
       <c r="G47" s="128"/>
       <c r="H47" s="128"/>
-      <c r="I47" s="197" t="s">
+      <c r="I47" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="J47" s="198"/>
+      <c r="J47" s="155"/>
       <c r="K47" s="3">
         <f>+K46*K45</f>
         <v>350000</v>
@@ -8859,7 +8861,7 @@
       <c r="O47" s="128"/>
       <c r="P47" s="128"/>
       <c r="Q47" s="128"/>
-      <c r="R47" s="188"/>
+      <c r="R47" s="186"/>
     </row>
     <row r="48" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="128"/>
@@ -8877,10 +8879,10 @@
       <c r="F48" s="128"/>
       <c r="G48" s="128"/>
       <c r="H48" s="128"/>
-      <c r="I48" s="199" t="s">
+      <c r="I48" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="200"/>
+      <c r="J48" s="175"/>
       <c r="K48" s="21">
         <f>+K47/H30</f>
         <v>208.33333333333334</v>
@@ -8893,7 +8895,7 @@
       <c r="O48" s="128"/>
       <c r="P48" s="128"/>
       <c r="Q48" s="128"/>
-      <c r="R48" s="188"/>
+      <c r="R48" s="186"/>
     </row>
     <row r="49" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="128"/>
@@ -8920,7 +8922,7 @@
       <c r="O49" s="128"/>
       <c r="P49" s="128"/>
       <c r="Q49" s="128"/>
-      <c r="R49" s="188"/>
+      <c r="R49" s="186"/>
     </row>
     <row r="50" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="128"/>
@@ -8937,18 +8939,18 @@
       <c r="F50" s="128"/>
       <c r="G50" s="128"/>
       <c r="H50" s="128"/>
-      <c r="I50" s="157" t="s">
+      <c r="I50" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="J50" s="158"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="162"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="178"/>
       <c r="M50" s="128"/>
       <c r="N50" s="149"/>
       <c r="O50" s="128"/>
       <c r="P50" s="128"/>
       <c r="Q50" s="128"/>
-      <c r="R50" s="188"/>
+      <c r="R50" s="186"/>
     </row>
     <row r="51" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="128"/>
@@ -8966,10 +8968,10 @@
       <c r="F51" s="128"/>
       <c r="G51" s="128"/>
       <c r="H51" s="128"/>
-      <c r="I51" s="195" t="s">
+      <c r="I51" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="196"/>
+      <c r="J51" s="183"/>
       <c r="K51" s="39">
         <v>600000</v>
       </c>
@@ -8981,7 +8983,7 @@
       <c r="O51" s="128"/>
       <c r="P51" s="128"/>
       <c r="Q51" s="128"/>
-      <c r="R51" s="188"/>
+      <c r="R51" s="186"/>
     </row>
     <row r="52" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="128"/>
@@ -8999,10 +9001,10 @@
       <c r="F52" s="128"/>
       <c r="G52" s="128"/>
       <c r="H52" s="128"/>
-      <c r="I52" s="199" t="s">
+      <c r="I52" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="J52" s="200"/>
+      <c r="J52" s="175"/>
       <c r="K52" s="21">
         <f>+K51/(H30*3*2*12)</f>
         <v>4.9603174603174605</v>
@@ -9015,7 +9017,7 @@
       <c r="O52" s="128"/>
       <c r="P52" s="128"/>
       <c r="Q52" s="128"/>
-      <c r="R52" s="188"/>
+      <c r="R52" s="186"/>
     </row>
     <row r="53" spans="1:51" s="26" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="128"/>
@@ -9035,7 +9037,7 @@
       <c r="O53" s="128"/>
       <c r="P53" s="128"/>
       <c r="Q53" s="128"/>
-      <c r="R53" s="188"/>
+      <c r="R53" s="186"/>
       <c r="S53" s="128"/>
       <c r="T53" s="128"/>
       <c r="U53" s="128"/>
@@ -9075,11 +9077,11 @@
       <c r="B54" s="128"/>
       <c r="C54" s="128"/>
       <c r="D54" s="128"/>
-      <c r="E54" s="157" t="s">
+      <c r="E54" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="158"/>
-      <c r="G54" s="210"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="184"/>
       <c r="H54" s="45">
         <f>+D39+D52+K36+K41+K48+K52</f>
         <v>1307.6803854875282</v>
@@ -9095,7 +9097,7 @@
       <c r="O54" s="128"/>
       <c r="P54" s="128"/>
       <c r="Q54" s="128"/>
-      <c r="R54" s="188"/>
+      <c r="R54" s="186"/>
     </row>
     <row r="55" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="128"/>
@@ -9115,7 +9117,7 @@
       <c r="O55" s="128"/>
       <c r="P55" s="128"/>
       <c r="Q55" s="128"/>
-      <c r="R55" s="188"/>
+      <c r="R55" s="186"/>
     </row>
     <row r="56" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="139"/>
@@ -9135,7 +9137,7 @@
       <c r="O56" s="140"/>
       <c r="P56" s="140"/>
       <c r="Q56" s="140"/>
-      <c r="R56" s="188"/>
+      <c r="R56" s="186"/>
     </row>
     <row r="57" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="128"/>
@@ -9155,17 +9157,17 @@
       <c r="O57" s="128"/>
       <c r="P57" s="128"/>
       <c r="Q57" s="128"/>
-      <c r="R57" s="188"/>
+      <c r="R57" s="186"/>
     </row>
     <row r="58" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="128"/>
       <c r="B58" s="141"/>
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="162"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="178"/>
       <c r="G58" s="128"/>
       <c r="H58" s="128"/>
       <c r="I58" s="128"/>
@@ -9177,15 +9179,15 @@
       <c r="O58" s="128"/>
       <c r="P58" s="128"/>
       <c r="Q58" s="128"/>
-      <c r="R58" s="188"/>
+      <c r="R58" s="186"/>
     </row>
     <row r="59" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="128"/>
       <c r="B59" s="138"/>
-      <c r="C59" s="195" t="s">
+      <c r="C59" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="196"/>
+      <c r="D59" s="183"/>
       <c r="E59" s="87">
         <v>0.28475200000000001</v>
       </c>
@@ -9203,15 +9205,15 @@
       <c r="O59" s="128"/>
       <c r="P59" s="128"/>
       <c r="Q59" s="128"/>
-      <c r="R59" s="188"/>
+      <c r="R59" s="186"/>
     </row>
     <row r="60" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="128"/>
       <c r="B60" s="138"/>
-      <c r="C60" s="197" t="s">
+      <c r="C60" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="198"/>
+      <c r="D60" s="155"/>
       <c r="E60" s="17">
         <f>+M26</f>
         <v>150633641.81999999</v>
@@ -9230,15 +9232,15 @@
       <c r="O60" s="128"/>
       <c r="P60" s="128"/>
       <c r="Q60" s="128"/>
-      <c r="R60" s="188"/>
+      <c r="R60" s="186"/>
     </row>
     <row r="61" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="128"/>
       <c r="B61" s="138"/>
-      <c r="C61" s="197" t="s">
+      <c r="C61" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="198"/>
+      <c r="D61" s="155"/>
       <c r="E61" s="17">
         <v>3</v>
       </c>
@@ -9256,15 +9258,15 @@
       <c r="O61" s="128"/>
       <c r="P61" s="128"/>
       <c r="Q61" s="128"/>
-      <c r="R61" s="188"/>
+      <c r="R61" s="186"/>
     </row>
     <row r="62" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="128"/>
       <c r="B62" s="138"/>
-      <c r="C62" s="199" t="s">
+      <c r="C62" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="200"/>
+      <c r="D62" s="175"/>
       <c r="E62" s="88">
         <f>+E60*(1+E59)^E61-E60</f>
         <v>168799433.99671113</v>
@@ -9283,7 +9285,7 @@
       <c r="O62" s="128"/>
       <c r="P62" s="128"/>
       <c r="Q62" s="128"/>
-      <c r="R62" s="188"/>
+      <c r="R62" s="186"/>
     </row>
     <row r="63" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="128"/>
@@ -9303,7 +9305,7 @@
       <c r="O63" s="128"/>
       <c r="P63" s="128"/>
       <c r="Q63" s="128"/>
-      <c r="R63" s="188"/>
+      <c r="R63" s="186"/>
     </row>
     <row r="64" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="128"/>
@@ -9323,7 +9325,7 @@
       <c r="O64" s="128"/>
       <c r="P64" s="128"/>
       <c r="Q64" s="128"/>
-      <c r="R64" s="188"/>
+      <c r="R64" s="186"/>
     </row>
     <row r="65" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="139"/>
@@ -9343,7 +9345,7 @@
       <c r="O65" s="140"/>
       <c r="P65" s="140"/>
       <c r="Q65" s="140"/>
-      <c r="R65" s="188"/>
+      <c r="R65" s="186"/>
     </row>
     <row r="66" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="128"/>
@@ -9363,17 +9365,17 @@
       <c r="O66" s="128"/>
       <c r="P66" s="128"/>
       <c r="Q66" s="128"/>
-      <c r="R66" s="188"/>
+      <c r="R66" s="186"/>
     </row>
     <row r="67" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="128"/>
       <c r="B67" s="138"/>
-      <c r="C67" s="157" t="s">
+      <c r="C67" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="158"/>
-      <c r="E67" s="158"/>
-      <c r="F67" s="162"/>
+      <c r="D67" s="177"/>
+      <c r="E67" s="177"/>
+      <c r="F67" s="178"/>
       <c r="G67" s="128"/>
       <c r="H67" s="128"/>
       <c r="I67" s="128"/>
@@ -9385,15 +9387,15 @@
       <c r="O67" s="128"/>
       <c r="P67" s="128"/>
       <c r="Q67" s="128"/>
-      <c r="R67" s="188"/>
+      <c r="R67" s="186"/>
     </row>
     <row r="68" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="128"/>
       <c r="B68" s="138"/>
-      <c r="C68" s="195" t="s">
+      <c r="C68" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="196"/>
+      <c r="D68" s="183"/>
       <c r="E68" s="72">
         <v>1468</v>
       </c>
@@ -9411,15 +9413,15 @@
       <c r="O68" s="128"/>
       <c r="P68" s="128"/>
       <c r="Q68" s="128"/>
-      <c r="R68" s="188"/>
+      <c r="R68" s="186"/>
     </row>
     <row r="69" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="128"/>
       <c r="B69" s="138"/>
-      <c r="C69" s="197" t="s">
+      <c r="C69" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="198"/>
+      <c r="D69" s="155"/>
       <c r="E69" s="17">
         <v>120</v>
       </c>
@@ -9437,15 +9439,15 @@
       <c r="O69" s="128"/>
       <c r="P69" s="128"/>
       <c r="Q69" s="128"/>
-      <c r="R69" s="188"/>
+      <c r="R69" s="186"/>
     </row>
     <row r="70" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="128"/>
       <c r="B70" s="138"/>
-      <c r="C70" s="197" t="s">
+      <c r="C70" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="198"/>
+      <c r="D70" s="155"/>
       <c r="E70" s="17">
         <v>14</v>
       </c>
@@ -9463,15 +9465,15 @@
       <c r="O70" s="128"/>
       <c r="P70" s="128"/>
       <c r="Q70" s="128"/>
-      <c r="R70" s="188"/>
+      <c r="R70" s="186"/>
     </row>
     <row r="71" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="128"/>
       <c r="B71" s="138"/>
-      <c r="C71" s="197" t="s">
+      <c r="C71" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="198"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="17">
         <v>5</v>
       </c>
@@ -9489,15 +9491,15 @@
       <c r="O71" s="128"/>
       <c r="P71" s="128"/>
       <c r="Q71" s="128"/>
-      <c r="R71" s="188"/>
+      <c r="R71" s="186"/>
     </row>
     <row r="72" spans="1:51" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="128"/>
       <c r="B72" s="138"/>
-      <c r="C72" s="197" t="s">
+      <c r="C72" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="198"/>
+      <c r="D72" s="155"/>
       <c r="E72" s="17">
         <v>3</v>
       </c>
@@ -9515,7 +9517,7 @@
       <c r="O72" s="128"/>
       <c r="P72" s="128"/>
       <c r="Q72" s="128"/>
-      <c r="R72" s="188"/>
+      <c r="R72" s="186"/>
       <c r="S72" s="128"/>
       <c r="T72" s="128"/>
       <c r="U72" s="128"/>
@@ -9553,10 +9555,10 @@
     <row r="73" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="128"/>
       <c r="B73" s="141"/>
-      <c r="C73" s="197" t="s">
+      <c r="C73" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="198"/>
+      <c r="D73" s="155"/>
       <c r="E73" s="16">
         <f>+E71*E72*E70*E69</f>
         <v>25200</v>
@@ -9575,15 +9577,15 @@
       <c r="O73" s="128"/>
       <c r="P73" s="128"/>
       <c r="Q73" s="128"/>
-      <c r="R73" s="188"/>
+      <c r="R73" s="186"/>
     </row>
     <row r="74" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="128"/>
       <c r="B74" s="128"/>
-      <c r="C74" s="197" t="s">
+      <c r="C74" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="198"/>
+      <c r="D74" s="155"/>
       <c r="E74" s="16">
         <f>+E73*12</f>
         <v>302400</v>
@@ -9602,15 +9604,15 @@
       <c r="O74" s="128"/>
       <c r="P74" s="128"/>
       <c r="Q74" s="128"/>
-      <c r="R74" s="188"/>
+      <c r="R74" s="186"/>
     </row>
     <row r="75" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="128"/>
       <c r="B75" s="128"/>
-      <c r="C75" s="199" t="s">
+      <c r="C75" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="200"/>
+      <c r="D75" s="175"/>
       <c r="E75" s="21">
         <f>+E74*E68</f>
         <v>443923200</v>
@@ -9629,7 +9631,7 @@
       <c r="O75" s="128"/>
       <c r="P75" s="128"/>
       <c r="Q75" s="128"/>
-      <c r="R75" s="188"/>
+      <c r="R75" s="186"/>
     </row>
     <row r="76" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="128"/>
@@ -9649,27 +9651,27 @@
       <c r="O76" s="128"/>
       <c r="P76" s="128"/>
       <c r="Q76" s="128"/>
-      <c r="R76" s="188"/>
+      <c r="R76" s="186"/>
     </row>
     <row r="77" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="151"/>
-      <c r="B77" s="152"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="152"/>
-      <c r="H77" s="152"/>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="152"/>
-      <c r="L77" s="152"/>
-      <c r="M77" s="152"/>
-      <c r="N77" s="152"/>
-      <c r="O77" s="152"/>
-      <c r="P77" s="152"/>
-      <c r="Q77" s="153"/>
-      <c r="R77" s="188"/>
+      <c r="A77" s="179"/>
+      <c r="B77" s="180"/>
+      <c r="C77" s="180"/>
+      <c r="D77" s="180"/>
+      <c r="E77" s="180"/>
+      <c r="F77" s="180"/>
+      <c r="G77" s="180"/>
+      <c r="H77" s="180"/>
+      <c r="I77" s="180"/>
+      <c r="J77" s="180"/>
+      <c r="K77" s="180"/>
+      <c r="L77" s="180"/>
+      <c r="M77" s="180"/>
+      <c r="N77" s="180"/>
+      <c r="O77" s="180"/>
+      <c r="P77" s="180"/>
+      <c r="Q77" s="181"/>
+      <c r="R77" s="186"/>
     </row>
     <row r="78" spans="1:51" s="26" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="137"/>
@@ -9689,7 +9691,7 @@
       <c r="O78" s="137"/>
       <c r="P78" s="137"/>
       <c r="Q78" s="137"/>
-      <c r="R78" s="188"/>
+      <c r="R78" s="186"/>
       <c r="S78" s="128"/>
       <c r="T78" s="128"/>
       <c r="U78" s="128"/>
@@ -9747,7 +9749,7 @@
       <c r="O79" s="137"/>
       <c r="P79" s="137"/>
       <c r="Q79" s="137"/>
-      <c r="R79" s="188"/>
+      <c r="R79" s="186"/>
       <c r="S79" s="128"/>
       <c r="T79" s="128"/>
       <c r="U79" s="128"/>
@@ -9784,12 +9786,12 @@
     </row>
     <row r="80" spans="1:51" s="26" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="137"/>
-      <c r="B80" s="157" t="s">
+      <c r="B80" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="158"/>
-      <c r="D80" s="158"/>
-      <c r="E80" s="162"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="177"/>
+      <c r="E80" s="178"/>
       <c r="F80" s="137"/>
       <c r="G80" s="82">
         <v>1</v>
@@ -9807,7 +9809,7 @@
       <c r="O80" s="137"/>
       <c r="P80" s="137"/>
       <c r="Q80" s="137"/>
-      <c r="R80" s="188"/>
+      <c r="R80" s="186"/>
       <c r="S80" s="128"/>
       <c r="T80" s="128"/>
       <c r="U80" s="128"/>
@@ -9872,7 +9874,7 @@
       <c r="O81" s="137"/>
       <c r="P81" s="137"/>
       <c r="Q81" s="137"/>
-      <c r="R81" s="188"/>
+      <c r="R81" s="186"/>
       <c r="S81" s="128"/>
       <c r="T81" s="128"/>
       <c r="U81" s="128"/>
@@ -9936,7 +9938,7 @@
       <c r="O82" s="137"/>
       <c r="P82" s="137"/>
       <c r="Q82" s="137"/>
-      <c r="R82" s="188"/>
+      <c r="R82" s="186"/>
       <c r="S82" s="128"/>
       <c r="T82" s="128"/>
       <c r="U82" s="128"/>
@@ -10000,7 +10002,7 @@
       <c r="O83" s="137"/>
       <c r="P83" s="137"/>
       <c r="Q83" s="137"/>
-      <c r="R83" s="188"/>
+      <c r="R83" s="186"/>
       <c r="S83" s="128"/>
       <c r="T83" s="128"/>
       <c r="U83" s="128"/>
@@ -10065,7 +10067,7 @@
       <c r="O84" s="137"/>
       <c r="P84" s="137"/>
       <c r="Q84" s="137"/>
-      <c r="R84" s="188"/>
+      <c r="R84" s="186"/>
       <c r="S84" s="128"/>
       <c r="T84" s="128"/>
       <c r="U84" s="128"/>
@@ -10123,7 +10125,7 @@
       <c r="O85" s="137"/>
       <c r="P85" s="137"/>
       <c r="Q85" s="137"/>
-      <c r="R85" s="188"/>
+      <c r="R85" s="186"/>
       <c r="S85" s="128"/>
       <c r="T85" s="128"/>
       <c r="U85" s="128"/>
@@ -10181,7 +10183,7 @@
       <c r="O86" s="137"/>
       <c r="P86" s="137"/>
       <c r="Q86" s="137"/>
-      <c r="R86" s="188"/>
+      <c r="R86" s="186"/>
       <c r="S86" s="128"/>
       <c r="T86" s="128"/>
       <c r="U86" s="128"/>
@@ -10239,7 +10241,7 @@
       <c r="O87" s="137"/>
       <c r="P87" s="137"/>
       <c r="Q87" s="137"/>
-      <c r="R87" s="188"/>
+      <c r="R87" s="186"/>
       <c r="S87" s="128"/>
       <c r="T87" s="128"/>
       <c r="U87" s="128"/>
@@ -10297,7 +10299,7 @@
       <c r="O88" s="137"/>
       <c r="P88" s="137"/>
       <c r="Q88" s="137"/>
-      <c r="R88" s="188"/>
+      <c r="R88" s="186"/>
       <c r="S88" s="128"/>
       <c r="T88" s="128"/>
       <c r="U88" s="128"/>
@@ -10355,7 +10357,7 @@
       <c r="O89" s="137"/>
       <c r="P89" s="137"/>
       <c r="Q89" s="137"/>
-      <c r="R89" s="188"/>
+      <c r="R89" s="186"/>
       <c r="S89" s="128"/>
       <c r="T89" s="128"/>
       <c r="U89" s="128"/>
@@ -10413,7 +10415,7 @@
       <c r="O90" s="137"/>
       <c r="P90" s="137"/>
       <c r="Q90" s="137"/>
-      <c r="R90" s="188"/>
+      <c r="R90" s="186"/>
       <c r="S90" s="128"/>
       <c r="T90" s="128"/>
       <c r="U90" s="128"/>
@@ -10471,7 +10473,7 @@
       <c r="O91" s="137"/>
       <c r="P91" s="137"/>
       <c r="Q91" s="137"/>
-      <c r="R91" s="188"/>
+      <c r="R91" s="186"/>
       <c r="S91" s="128"/>
       <c r="T91" s="128"/>
       <c r="U91" s="128"/>
@@ -10529,7 +10531,7 @@
       <c r="O92" s="137"/>
       <c r="P92" s="137"/>
       <c r="Q92" s="137"/>
-      <c r="R92" s="188"/>
+      <c r="R92" s="186"/>
       <c r="S92" s="128"/>
       <c r="T92" s="128"/>
       <c r="U92" s="128"/>
@@ -10587,7 +10589,7 @@
       <c r="O93" s="137"/>
       <c r="P93" s="137"/>
       <c r="Q93" s="137"/>
-      <c r="R93" s="188"/>
+      <c r="R93" s="186"/>
       <c r="S93" s="128"/>
       <c r="T93" s="128"/>
       <c r="U93" s="128"/>
@@ -10645,7 +10647,7 @@
       <c r="O94" s="137"/>
       <c r="P94" s="137"/>
       <c r="Q94" s="137"/>
-      <c r="R94" s="188"/>
+      <c r="R94" s="186"/>
       <c r="S94" s="128"/>
       <c r="T94" s="128"/>
       <c r="U94" s="128"/>
@@ -10703,7 +10705,7 @@
       <c r="O95" s="137"/>
       <c r="P95" s="137"/>
       <c r="Q95" s="137"/>
-      <c r="R95" s="188"/>
+      <c r="R95" s="186"/>
       <c r="S95" s="128"/>
       <c r="T95" s="128"/>
       <c r="U95" s="128"/>
@@ -10761,7 +10763,7 @@
       <c r="O96" s="137"/>
       <c r="P96" s="137"/>
       <c r="Q96" s="137"/>
-      <c r="R96" s="188"/>
+      <c r="R96" s="186"/>
       <c r="S96" s="128"/>
       <c r="T96" s="128"/>
       <c r="U96" s="128"/>
@@ -10819,7 +10821,7 @@
       <c r="O97" s="137"/>
       <c r="P97" s="137"/>
       <c r="Q97" s="137"/>
-      <c r="R97" s="188"/>
+      <c r="R97" s="186"/>
       <c r="S97" s="128"/>
       <c r="T97" s="128"/>
       <c r="U97" s="128"/>
@@ -10877,7 +10879,7 @@
       <c r="O98" s="128"/>
       <c r="P98" s="128"/>
       <c r="Q98" s="128"/>
-      <c r="R98" s="188"/>
+      <c r="R98" s="186"/>
     </row>
     <row r="99" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="128"/>
@@ -10902,7 +10904,7 @@
       <c r="O99" s="128"/>
       <c r="P99" s="128"/>
       <c r="Q99" s="128"/>
-      <c r="R99" s="188"/>
+      <c r="R99" s="186"/>
     </row>
     <row r="100" spans="1:51" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="128"/>
@@ -10920,7 +10922,7 @@
       <c r="O100" s="128"/>
       <c r="P100" s="128"/>
       <c r="Q100" s="128"/>
-      <c r="R100" s="188"/>
+      <c r="R100" s="186"/>
       <c r="S100" s="128"/>
       <c r="T100" s="128"/>
       <c r="U100" s="128"/>
@@ -10973,7 +10975,7 @@
       <c r="O101" s="128"/>
       <c r="P101" s="128"/>
       <c r="Q101" s="128"/>
-      <c r="R101" s="188"/>
+      <c r="R101" s="186"/>
       <c r="S101" s="128"/>
       <c r="T101" s="128"/>
       <c r="U101" s="128"/>
@@ -11026,7 +11028,7 @@
       <c r="O102" s="140"/>
       <c r="P102" s="140"/>
       <c r="Q102" s="140"/>
-      <c r="R102" s="188"/>
+      <c r="R102" s="186"/>
     </row>
     <row r="103" spans="1:51" s="26" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="137"/>
@@ -11046,7 +11048,7 @@
       <c r="O103" s="137"/>
       <c r="P103" s="137"/>
       <c r="Q103" s="137"/>
-      <c r="R103" s="188"/>
+      <c r="R103" s="186"/>
       <c r="S103" s="128"/>
       <c r="T103" s="128"/>
       <c r="U103" s="128"/>
@@ -11083,32 +11085,32 @@
     </row>
     <row r="104" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="128"/>
-      <c r="B104" s="179" t="s">
+      <c r="B104" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="C104" s="180"/>
-      <c r="D104" s="183" t="s">
+      <c r="C104" s="206"/>
+      <c r="D104" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="183" t="s">
+      <c r="E104" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="F104" s="183" t="s">
+      <c r="F104" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="G104" s="183" t="s">
+      <c r="G104" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="H104" s="183" t="s">
+      <c r="H104" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="I104" s="185" t="s">
+      <c r="I104" s="211" t="s">
         <v>152</v>
       </c>
-      <c r="J104" s="183" t="s">
+      <c r="J104" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="K104" s="176" t="s">
+      <c r="K104" s="202" t="s">
         <v>50</v>
       </c>
       <c r="L104" s="128"/>
@@ -11117,27 +11119,27 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
       <c r="Q104" s="128"/>
-      <c r="R104" s="188"/>
+      <c r="R104" s="186"/>
     </row>
     <row r="105" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="128"/>
-      <c r="B105" s="181"/>
-      <c r="C105" s="182"/>
-      <c r="D105" s="184"/>
-      <c r="E105" s="184"/>
-      <c r="F105" s="184"/>
-      <c r="G105" s="184"/>
-      <c r="H105" s="184"/>
-      <c r="I105" s="186"/>
-      <c r="J105" s="184"/>
-      <c r="K105" s="177"/>
+      <c r="B105" s="207"/>
+      <c r="C105" s="208"/>
+      <c r="D105" s="210"/>
+      <c r="E105" s="210"/>
+      <c r="F105" s="210"/>
+      <c r="G105" s="210"/>
+      <c r="H105" s="210"/>
+      <c r="I105" s="212"/>
+      <c r="J105" s="210"/>
+      <c r="K105" s="203"/>
       <c r="L105" s="128"/>
       <c r="M105" s="128"/>
       <c r="N105" s="128"/>
       <c r="O105" s="128"/>
       <c r="P105" s="128"/>
       <c r="Q105" s="128"/>
-      <c r="R105" s="188"/>
+      <c r="R105" s="186"/>
     </row>
     <row r="106" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="128"/>
@@ -11182,7 +11184,7 @@
       <c r="O106" s="128"/>
       <c r="P106" s="128"/>
       <c r="Q106" s="128"/>
-      <c r="R106" s="188"/>
+      <c r="R106" s="186"/>
     </row>
     <row r="107" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="128"/>
@@ -11226,7 +11228,7 @@
       <c r="O107" s="128"/>
       <c r="P107" s="128"/>
       <c r="Q107" s="128"/>
-      <c r="R107" s="188"/>
+      <c r="R107" s="186"/>
     </row>
     <row r="108" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="128"/>
@@ -11270,7 +11272,7 @@
       <c r="O108" s="128"/>
       <c r="P108" s="128"/>
       <c r="Q108" s="128"/>
-      <c r="R108" s="188"/>
+      <c r="R108" s="186"/>
     </row>
     <row r="109" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="128"/>
@@ -11314,7 +11316,7 @@
       <c r="O109" s="128"/>
       <c r="P109" s="128"/>
       <c r="Q109" s="128"/>
-      <c r="R109" s="188"/>
+      <c r="R109" s="186"/>
     </row>
     <row r="110" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="128"/>
@@ -11358,7 +11360,7 @@
       <c r="O110" s="128"/>
       <c r="P110" s="128"/>
       <c r="Q110" s="128"/>
-      <c r="R110" s="188"/>
+      <c r="R110" s="186"/>
     </row>
     <row r="111" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="128"/>
@@ -11402,7 +11404,7 @@
       <c r="O111" s="128"/>
       <c r="P111" s="128"/>
       <c r="Q111" s="128"/>
-      <c r="R111" s="188"/>
+      <c r="R111" s="186"/>
     </row>
     <row r="112" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="128"/>
@@ -11446,7 +11448,7 @@
       <c r="O112" s="128"/>
       <c r="P112" s="128"/>
       <c r="Q112" s="128"/>
-      <c r="R112" s="188"/>
+      <c r="R112" s="186"/>
     </row>
     <row r="113" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="128"/>
@@ -11490,7 +11492,7 @@
       <c r="O113" s="128"/>
       <c r="P113" s="128"/>
       <c r="Q113" s="128"/>
-      <c r="R113" s="188"/>
+      <c r="R113" s="186"/>
     </row>
     <row r="114" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="128"/>
@@ -11534,7 +11536,7 @@
       <c r="O114" s="128"/>
       <c r="P114" s="128"/>
       <c r="Q114" s="128"/>
-      <c r="R114" s="188"/>
+      <c r="R114" s="186"/>
     </row>
     <row r="115" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="128"/>
@@ -11578,7 +11580,7 @@
       <c r="O115" s="128"/>
       <c r="P115" s="128"/>
       <c r="Q115" s="128"/>
-      <c r="R115" s="188"/>
+      <c r="R115" s="186"/>
     </row>
     <row r="116" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="128"/>
@@ -11622,7 +11624,7 @@
       <c r="O116" s="128"/>
       <c r="P116" s="128"/>
       <c r="Q116" s="128"/>
-      <c r="R116" s="188"/>
+      <c r="R116" s="186"/>
     </row>
     <row r="117" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="128"/>
@@ -11666,7 +11668,7 @@
       <c r="O117" s="128"/>
       <c r="P117" s="128"/>
       <c r="Q117" s="128"/>
-      <c r="R117" s="188"/>
+      <c r="R117" s="186"/>
     </row>
     <row r="118" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="128"/>
@@ -11710,7 +11712,7 @@
       <c r="O118" s="128"/>
       <c r="P118" s="128"/>
       <c r="Q118" s="128"/>
-      <c r="R118" s="188"/>
+      <c r="R118" s="186"/>
     </row>
     <row r="119" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="128"/>
@@ -11754,7 +11756,7 @@
       <c r="O119" s="128"/>
       <c r="P119" s="128"/>
       <c r="Q119" s="128"/>
-      <c r="R119" s="188"/>
+      <c r="R119" s="186"/>
     </row>
     <row r="120" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="128"/>
@@ -11798,7 +11800,7 @@
       <c r="O120" s="128"/>
       <c r="P120" s="128"/>
       <c r="Q120" s="128"/>
-      <c r="R120" s="188"/>
+      <c r="R120" s="186"/>
     </row>
     <row r="121" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="128"/>
@@ -11842,7 +11844,7 @@
       <c r="O121" s="128"/>
       <c r="P121" s="128"/>
       <c r="Q121" s="128"/>
-      <c r="R121" s="188"/>
+      <c r="R121" s="186"/>
     </row>
     <row r="122" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="128"/>
@@ -11886,7 +11888,7 @@
       <c r="O122" s="128"/>
       <c r="P122" s="128"/>
       <c r="Q122" s="128"/>
-      <c r="R122" s="188"/>
+      <c r="R122" s="186"/>
     </row>
     <row r="123" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="128"/>
@@ -11930,7 +11932,7 @@
       <c r="O123" s="128"/>
       <c r="P123" s="128"/>
       <c r="Q123" s="128"/>
-      <c r="R123" s="188"/>
+      <c r="R123" s="186"/>
     </row>
     <row r="124" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="128"/>
@@ -11974,7 +11976,7 @@
       <c r="O124" s="128"/>
       <c r="P124" s="128"/>
       <c r="Q124" s="128"/>
-      <c r="R124" s="188"/>
+      <c r="R124" s="186"/>
     </row>
     <row r="125" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="128"/>
@@ -12018,7 +12020,7 @@
       <c r="O125" s="128"/>
       <c r="P125" s="128"/>
       <c r="Q125" s="128"/>
-      <c r="R125" s="188"/>
+      <c r="R125" s="186"/>
     </row>
     <row r="126" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="128"/>
@@ -12062,7 +12064,7 @@
       <c r="O126" s="128"/>
       <c r="P126" s="128"/>
       <c r="Q126" s="128"/>
-      <c r="R126" s="188"/>
+      <c r="R126" s="186"/>
     </row>
     <row r="127" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="128"/>
@@ -12082,7 +12084,7 @@
       <c r="O127" s="128"/>
       <c r="P127" s="128"/>
       <c r="Q127" s="128"/>
-      <c r="R127" s="188"/>
+      <c r="R127" s="186"/>
     </row>
     <row r="128" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="128"/>
@@ -12102,7 +12104,7 @@
       <c r="O128" s="128"/>
       <c r="P128" s="128"/>
       <c r="Q128" s="128"/>
-      <c r="R128" s="188"/>
+      <c r="R128" s="186"/>
     </row>
     <row r="129" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="128"/>
@@ -12111,27 +12113,27 @@
       <c r="D129" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E129" s="178">
+      <c r="E129" s="204">
         <v>12</v>
       </c>
-      <c r="F129" s="178"/>
+      <c r="F129" s="204"/>
       <c r="G129" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="H129" s="201" t="str">
+      <c r="H129" s="193" t="str">
         <f>IF(E130&gt;0, "Ojo Produce Ganancias por Valor ", "Ojo Produce Perdidas  por Valor ")</f>
         <v xml:space="preserve">Ojo Produce Ganancias por Valor </v>
       </c>
-      <c r="I129" s="202"/>
-      <c r="J129" s="202"/>
-      <c r="K129" s="203"/>
+      <c r="I129" s="194"/>
+      <c r="J129" s="194"/>
+      <c r="K129" s="195"/>
       <c r="L129" s="128"/>
       <c r="M129" s="128"/>
       <c r="N129" s="128"/>
       <c r="O129" s="128"/>
       <c r="P129" s="128"/>
       <c r="Q129" s="128"/>
-      <c r="R129" s="188"/>
+      <c r="R129" s="186"/>
     </row>
     <row r="130" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="128"/>
@@ -12140,25 +12142,25 @@
       <c r="D130" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="E130" s="163">
+      <c r="E130" s="230">
         <f>+NPV(E129/100,K106:K126)</f>
         <v>149699.94353727586</v>
       </c>
-      <c r="F130" s="163"/>
+      <c r="F130" s="230"/>
       <c r="G130" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="H130" s="204"/>
-      <c r="I130" s="205"/>
-      <c r="J130" s="205"/>
-      <c r="K130" s="206"/>
+      <c r="H130" s="196"/>
+      <c r="I130" s="197"/>
+      <c r="J130" s="197"/>
+      <c r="K130" s="198"/>
       <c r="L130" s="128"/>
       <c r="M130" s="128"/>
       <c r="N130" s="128"/>
       <c r="O130" s="128"/>
       <c r="P130" s="128"/>
       <c r="Q130" s="128"/>
-      <c r="R130" s="188"/>
+      <c r="R130" s="186"/>
     </row>
     <row r="131" spans="1:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="128"/>
@@ -12167,25 +12169,25 @@
       <c r="D131" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="E131" s="164">
+      <c r="E131" s="231">
         <f>IRR(K106:K126)</f>
         <v>0.12008643762745908</v>
       </c>
-      <c r="F131" s="164"/>
+      <c r="F131" s="231"/>
       <c r="G131" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="H131" s="207"/>
-      <c r="I131" s="208"/>
-      <c r="J131" s="208"/>
-      <c r="K131" s="209"/>
+      <c r="H131" s="199"/>
+      <c r="I131" s="200"/>
+      <c r="J131" s="200"/>
+      <c r="K131" s="201"/>
       <c r="L131" s="128"/>
       <c r="M131" s="128"/>
       <c r="N131" s="128"/>
       <c r="O131" s="128"/>
       <c r="P131" s="128"/>
       <c r="Q131" s="128"/>
-      <c r="R131" s="188"/>
+      <c r="R131" s="186"/>
     </row>
     <row r="132" spans="1:51" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="128"/>
@@ -12205,7 +12207,7 @@
       <c r="O132" s="128"/>
       <c r="P132" s="128"/>
       <c r="Q132" s="128"/>
-      <c r="R132" s="188"/>
+      <c r="R132" s="186"/>
       <c r="S132" s="128"/>
       <c r="T132" s="128"/>
       <c r="U132" s="128"/>
@@ -12258,27 +12260,27 @@
       <c r="O133" s="128"/>
       <c r="P133" s="128"/>
       <c r="Q133" s="128"/>
-      <c r="R133" s="188"/>
+      <c r="R133" s="186"/>
     </row>
     <row r="134" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="189"/>
-      <c r="B134" s="190"/>
-      <c r="C134" s="190"/>
-      <c r="D134" s="190"/>
-      <c r="E134" s="190"/>
-      <c r="F134" s="190"/>
-      <c r="G134" s="190"/>
-      <c r="H134" s="190"/>
-      <c r="I134" s="190"/>
-      <c r="J134" s="190"/>
-      <c r="K134" s="190"/>
-      <c r="L134" s="190"/>
-      <c r="M134" s="190"/>
-      <c r="N134" s="190"/>
-      <c r="O134" s="190"/>
-      <c r="P134" s="190"/>
-      <c r="Q134" s="191"/>
-      <c r="R134" s="188"/>
+      <c r="A134" s="187"/>
+      <c r="B134" s="188"/>
+      <c r="C134" s="188"/>
+      <c r="D134" s="188"/>
+      <c r="E134" s="188"/>
+      <c r="F134" s="188"/>
+      <c r="G134" s="188"/>
+      <c r="H134" s="188"/>
+      <c r="I134" s="188"/>
+      <c r="J134" s="188"/>
+      <c r="K134" s="188"/>
+      <c r="L134" s="188"/>
+      <c r="M134" s="188"/>
+      <c r="N134" s="188"/>
+      <c r="O134" s="188"/>
+      <c r="P134" s="188"/>
+      <c r="Q134" s="189"/>
+      <c r="R134" s="186"/>
       <c r="S134" s="129"/>
       <c r="T134" s="129"/>
       <c r="U134" s="129"/>
@@ -12306,7 +12308,7 @@
       <c r="O135" s="129"/>
       <c r="P135" s="129"/>
       <c r="Q135" s="129"/>
-      <c r="R135" s="188"/>
+      <c r="R135" s="186"/>
       <c r="S135" s="129"/>
       <c r="T135" s="129"/>
       <c r="U135" s="129"/>
@@ -12319,24 +12321,24 @@
     <row r="136" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="128"/>
       <c r="B136" s="128"/>
-      <c r="C136" s="165" t="s">
+      <c r="C136" s="213" t="s">
         <v>162</v>
       </c>
-      <c r="D136" s="166"/>
-      <c r="E136" s="166"/>
-      <c r="F136" s="166"/>
-      <c r="G136" s="166"/>
-      <c r="H136" s="166"/>
-      <c r="I136" s="166"/>
-      <c r="J136" s="166"/>
-      <c r="K136" s="166"/>
-      <c r="L136" s="166"/>
-      <c r="M136" s="166"/>
-      <c r="N136" s="166"/>
-      <c r="O136" s="167"/>
+      <c r="D136" s="214"/>
+      <c r="E136" s="214"/>
+      <c r="F136" s="214"/>
+      <c r="G136" s="214"/>
+      <c r="H136" s="214"/>
+      <c r="I136" s="214"/>
+      <c r="J136" s="214"/>
+      <c r="K136" s="214"/>
+      <c r="L136" s="214"/>
+      <c r="M136" s="214"/>
+      <c r="N136" s="214"/>
+      <c r="O136" s="215"/>
       <c r="P136" s="129"/>
       <c r="Q136" s="129"/>
-      <c r="R136" s="188"/>
+      <c r="R136" s="186"/>
       <c r="S136" s="129"/>
       <c r="T136" s="129"/>
       <c r="U136" s="129"/>
@@ -12364,7 +12366,7 @@
       <c r="O137" s="128"/>
       <c r="P137" s="129"/>
       <c r="Q137" s="129"/>
-      <c r="R137" s="188"/>
+      <c r="R137" s="186"/>
       <c r="S137" s="129"/>
       <c r="T137" s="129"/>
       <c r="U137" s="129"/>
@@ -12377,25 +12379,25 @@
     <row r="138" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="128"/>
       <c r="B138" s="128"/>
-      <c r="C138" s="172" t="s">
+      <c r="C138" s="220" t="s">
         <v>155</v>
       </c>
-      <c r="D138" s="168" t="s">
+      <c r="D138" s="216" t="s">
         <v>156</v>
       </c>
-      <c r="E138" s="170" t="s">
+      <c r="E138" s="218" t="s">
         <v>157</v>
       </c>
-      <c r="F138" s="170" t="s">
+      <c r="F138" s="218" t="s">
         <v>158</v>
       </c>
-      <c r="G138" s="170" t="s">
+      <c r="G138" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="H138" s="170" t="s">
+      <c r="H138" s="218" t="s">
         <v>160</v>
       </c>
-      <c r="I138" s="174" t="s">
+      <c r="I138" s="222" t="s">
         <v>161</v>
       </c>
       <c r="J138" s="129"/>
@@ -12406,7 +12408,7 @@
       <c r="O138" s="129"/>
       <c r="P138" s="129"/>
       <c r="Q138" s="129"/>
-      <c r="R138" s="188"/>
+      <c r="R138" s="186"/>
       <c r="S138" s="129"/>
       <c r="T138" s="129"/>
       <c r="U138" s="129"/>
@@ -12419,13 +12421,13 @@
     <row r="139" spans="1:51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="128"/>
       <c r="B139" s="128"/>
-      <c r="C139" s="173"/>
-      <c r="D139" s="169"/>
-      <c r="E139" s="171"/>
-      <c r="F139" s="171"/>
-      <c r="G139" s="171"/>
-      <c r="H139" s="171"/>
-      <c r="I139" s="175"/>
+      <c r="C139" s="221"/>
+      <c r="D139" s="217"/>
+      <c r="E139" s="219"/>
+      <c r="F139" s="219"/>
+      <c r="G139" s="219"/>
+      <c r="H139" s="219"/>
+      <c r="I139" s="223"/>
       <c r="J139" s="129"/>
       <c r="K139" s="129"/>
       <c r="L139" s="129"/>
@@ -12434,7 +12436,7 @@
       <c r="O139" s="129"/>
       <c r="P139" s="129"/>
       <c r="Q139" s="129"/>
-      <c r="R139" s="188"/>
+      <c r="R139" s="186"/>
       <c r="S139" s="129"/>
       <c r="T139" s="129"/>
       <c r="U139" s="129"/>
@@ -12483,7 +12485,7 @@
       <c r="O140" s="129"/>
       <c r="P140" s="129"/>
       <c r="Q140" s="129"/>
-      <c r="R140" s="188"/>
+      <c r="R140" s="186"/>
       <c r="S140" s="129"/>
       <c r="T140" s="129"/>
       <c r="U140" s="129"/>
@@ -12531,7 +12533,7 @@
       <c r="O141" s="129"/>
       <c r="P141" s="129"/>
       <c r="Q141" s="129"/>
-      <c r="R141" s="188"/>
+      <c r="R141" s="186"/>
       <c r="S141" s="129"/>
       <c r="T141" s="129"/>
       <c r="U141" s="129"/>
@@ -12579,7 +12581,7 @@
       <c r="O142" s="129"/>
       <c r="P142" s="129"/>
       <c r="Q142" s="129"/>
-      <c r="R142" s="188"/>
+      <c r="R142" s="186"/>
       <c r="S142" s="129"/>
       <c r="T142" s="129"/>
       <c r="U142" s="129"/>
@@ -12627,7 +12629,7 @@
       <c r="O143" s="129"/>
       <c r="P143" s="129"/>
       <c r="Q143" s="129"/>
-      <c r="R143" s="188"/>
+      <c r="R143" s="186"/>
       <c r="S143" s="129"/>
       <c r="T143" s="129"/>
       <c r="U143" s="129"/>
@@ -12675,7 +12677,7 @@
       <c r="O144" s="129"/>
       <c r="P144" s="129"/>
       <c r="Q144" s="129"/>
-      <c r="R144" s="188"/>
+      <c r="R144" s="186"/>
       <c r="S144" s="129"/>
       <c r="T144" s="129"/>
       <c r="U144" s="129"/>
@@ -12723,7 +12725,7 @@
       <c r="O145" s="128"/>
       <c r="P145" s="128"/>
       <c r="Q145" s="128"/>
-      <c r="R145" s="188"/>
+      <c r="R145" s="186"/>
     </row>
     <row r="146" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="128"/>
@@ -12802,7 +12804,7 @@
       <c r="O147" s="128"/>
       <c r="P147" s="128"/>
       <c r="Q147" s="128"/>
-      <c r="R147" s="188"/>
+      <c r="R147" s="186"/>
     </row>
     <row r="148" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="128"/>
@@ -12842,7 +12844,7 @@
       <c r="O148" s="128"/>
       <c r="P148" s="128"/>
       <c r="Q148" s="128"/>
-      <c r="R148" s="188"/>
+      <c r="R148" s="186"/>
     </row>
     <row r="149" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="128"/>
@@ -12882,7 +12884,7 @@
       <c r="O149" s="128"/>
       <c r="P149" s="128"/>
       <c r="Q149" s="128"/>
-      <c r="R149" s="188"/>
+      <c r="R149" s="186"/>
     </row>
     <row r="150" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="128"/>
@@ -12922,7 +12924,7 @@
       <c r="O150" s="128"/>
       <c r="P150" s="128"/>
       <c r="Q150" s="128"/>
-      <c r="R150" s="188"/>
+      <c r="R150" s="186"/>
     </row>
     <row r="151" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="128"/>
@@ -12962,7 +12964,7 @@
       <c r="O151" s="128"/>
       <c r="P151" s="128"/>
       <c r="Q151" s="128"/>
-      <c r="R151" s="188"/>
+      <c r="R151" s="186"/>
     </row>
     <row r="152" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="128"/>
@@ -13002,7 +13004,7 @@
       <c r="O152" s="128"/>
       <c r="P152" s="128"/>
       <c r="Q152" s="128"/>
-      <c r="R152" s="188"/>
+      <c r="R152" s="186"/>
     </row>
     <row r="153" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="128"/>
@@ -13042,7 +13044,7 @@
       <c r="O153" s="128"/>
       <c r="P153" s="128"/>
       <c r="Q153" s="128"/>
-      <c r="R153" s="188"/>
+      <c r="R153" s="186"/>
     </row>
     <row r="154" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="128"/>
@@ -13082,7 +13084,7 @@
       <c r="O154" s="128"/>
       <c r="P154" s="128"/>
       <c r="Q154" s="128"/>
-      <c r="R154" s="188"/>
+      <c r="R154" s="186"/>
     </row>
     <row r="155" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="128"/>
@@ -13122,7 +13124,7 @@
       <c r="O155" s="128"/>
       <c r="P155" s="128"/>
       <c r="Q155" s="128"/>
-      <c r="R155" s="188"/>
+      <c r="R155" s="186"/>
     </row>
     <row r="156" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="128"/>
@@ -13162,7 +13164,7 @@
       <c r="O156" s="128"/>
       <c r="P156" s="128"/>
       <c r="Q156" s="128"/>
-      <c r="R156" s="188"/>
+      <c r="R156" s="186"/>
     </row>
     <row r="157" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="128"/>
@@ -13202,7 +13204,7 @@
       <c r="O157" s="128"/>
       <c r="P157" s="128"/>
       <c r="Q157" s="128"/>
-      <c r="R157" s="188"/>
+      <c r="R157" s="186"/>
     </row>
     <row r="158" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="128"/>
@@ -13242,7 +13244,7 @@
       <c r="O158" s="128"/>
       <c r="P158" s="128"/>
       <c r="Q158" s="128"/>
-      <c r="R158" s="188"/>
+      <c r="R158" s="186"/>
     </row>
     <row r="159" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="128"/>
@@ -13771,23 +13773,23 @@
       <c r="Q172" s="128"/>
     </row>
     <row r="173" spans="1:17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="151"/>
-      <c r="B173" s="152"/>
-      <c r="C173" s="152"/>
-      <c r="D173" s="152"/>
-      <c r="E173" s="152"/>
-      <c r="F173" s="152"/>
-      <c r="G173" s="152"/>
-      <c r="H173" s="152"/>
-      <c r="I173" s="152"/>
-      <c r="J173" s="152"/>
-      <c r="K173" s="152"/>
-      <c r="L173" s="152"/>
-      <c r="M173" s="152"/>
-      <c r="N173" s="152"/>
-      <c r="O173" s="152"/>
-      <c r="P173" s="152"/>
-      <c r="Q173" s="153"/>
+      <c r="A173" s="179"/>
+      <c r="B173" s="180"/>
+      <c r="C173" s="180"/>
+      <c r="D173" s="180"/>
+      <c r="E173" s="180"/>
+      <c r="F173" s="180"/>
+      <c r="G173" s="180"/>
+      <c r="H173" s="180"/>
+      <c r="I173" s="180"/>
+      <c r="J173" s="180"/>
+      <c r="K173" s="180"/>
+      <c r="L173" s="180"/>
+      <c r="M173" s="180"/>
+      <c r="N173" s="180"/>
+      <c r="O173" s="180"/>
+      <c r="P173" s="180"/>
+      <c r="Q173" s="181"/>
     </row>
     <row r="174" spans="1:17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="128"/>
@@ -23937,37 +23939,40 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A77:Q77"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="A173:Q173"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="C136:O136"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
     <mergeCell ref="R1:R1048576"/>
     <mergeCell ref="A134:Q134"/>
     <mergeCell ref="H20:M20"/>
@@ -23984,40 +23989,37 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="H129:K131"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="C136:O136"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="A173:Q173"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A77:Q77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
